--- a/tables/TableS3/TableS3.xlsx
+++ b/tables/TableS3/TableS3.xlsx
@@ -492,7 +492,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -510,7 +510,7 @@
         <v>0.91</v>
       </c>
       <c r="C2">
-        <v>0.11</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -518,10 +518,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>9.7000000000000003E-3</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="C3">
-        <v>1.1200000000000001</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -532,7 +532,7 @@
         <v>0.74</v>
       </c>
       <c r="C4">
-        <v>0.33</v>
+        <v>3.5000000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -540,10 +540,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-0.17</v>
+        <v>-0.2</v>
       </c>
       <c r="C5">
-        <v>0.83</v>
+        <v>0.37</v>
       </c>
     </row>
   </sheetData>
